--- a/data/trans_orig/ENTORNO_EJER-Clase-trans_orig.xlsx
+++ b/data/trans_orig/ENTORNO_EJER-Clase-trans_orig.xlsx
@@ -7809,97 +7809,97 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>1106</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="inlineStr">
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>11,83%</t>
-        </is>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K29" s="2" t="inlineStr">
+      <c r="R29" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L29" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="inlineStr">
-        <is>
-          <t>1139</t>
-        </is>
-      </c>
-      <c r="N29" s="2" t="inlineStr">
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U29" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O29" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P29" s="2" t="inlineStr">
-        <is>
-          <t>9,99%</t>
-        </is>
-      </c>
-      <c r="Q29" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S29" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T29" s="2" t="inlineStr">
-        <is>
-          <t>1165</t>
-        </is>
-      </c>
-      <c r="U29" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/ENTORNO_EJER-Clase-trans_orig.xlsx
+++ b/data/trans_orig/ENTORNO_EJER-Clase-trans_orig.xlsx
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Entorno ejercicio físico en País Vasco</t>
+          <t>Entorno ejercicio físico en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4769,7 +4769,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Entorno ejercicio físico en C.Valenciana</t>
+          <t>Entorno ejercicio físico en C.Valenciana (tasa de respuesta: 93,5%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/ENTORNO_EJER-Clase-trans_orig.xlsx
+++ b/data/trans_orig/ENTORNO_EJER-Clase-trans_orig.xlsx
@@ -734,32 +734,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7678</t>
+          <t>8264</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5453</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10502</t>
+          <t>11604</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -769,32 +769,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7411</t>
+          <t>9292</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5561</t>
+          <t>7074</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>10126</t>
+          <t>12718</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -804,17 +804,17 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>15089</t>
+          <t>17556</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>12032</t>
+          <t>13826</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>19144</t>
+          <t>21586</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -824,12 +824,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>6,28%</t>
         </is>
       </c>
     </row>
@@ -847,32 +847,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12567</t>
+          <t>14945</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9785</t>
+          <t>11936</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16341</t>
+          <t>18918</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12450</t>
+          <t>15063</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9606</t>
+          <t>11850</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15985</t>
+          <t>18457</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -917,32 +917,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>25017</t>
+          <t>30008</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>20904</t>
+          <t>25689</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>29956</t>
+          <t>35687</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>10,39%</t>
         </is>
       </c>
     </row>
@@ -960,32 +960,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>57610</t>
+          <t>61775</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>52392</t>
+          <t>56028</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>63284</t>
+          <t>67643</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,61%</t>
+          <t>36,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>35,11%</t>
+          <t>33,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>42,41%</t>
+          <t>40,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -995,32 +995,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>48090</t>
+          <t>56054</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>43045</t>
+          <t>50598</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>53699</t>
+          <t>61901</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>32,94%</t>
+          <t>31,82%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>29,48%</t>
+          <t>28,73%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>36,78%</t>
+          <t>35,14%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1030,32 +1030,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>105699</t>
+          <t>117829</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>98541</t>
+          <t>110514</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>113428</t>
+          <t>126280</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>35,8%</t>
+          <t>34,29%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>33,38%</t>
+          <t>32,16%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>38,42%</t>
+          <t>36,75%</t>
         </is>
       </c>
     </row>
@@ -1073,32 +1073,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>71369</t>
+          <t>82515</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65325</t>
+          <t>76995</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>76646</t>
+          <t>89441</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>47,83%</t>
+          <t>49,26%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,78%</t>
+          <t>45,97%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,36%</t>
+          <t>53,4%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1108,32 +1108,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>78038</t>
+          <t>95724</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>72770</t>
+          <t>89196</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>83519</t>
+          <t>102121</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>53,45%</t>
+          <t>54,35%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>49,85%</t>
+          <t>50,64%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>57,21%</t>
+          <t>57,98%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1143,32 +1143,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>149407</t>
+          <t>178238</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>142229</t>
+          <t>169270</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>157627</t>
+          <t>186619</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>50,61%</t>
+          <t>51,87%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>48,18%</t>
+          <t>49,26%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>53,39%</t>
+          <t>54,31%</t>
         </is>
       </c>
     </row>
@@ -1186,17 +1186,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1221,17 +1221,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1256,17 +1256,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1303,32 +1303,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3902</t>
+          <t>4442</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2911</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6019</t>
+          <t>6585</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1338,32 +1338,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4898</t>
+          <t>4793</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3193</t>
+          <t>3269</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6982</t>
+          <t>6919</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1373,32 +1373,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>8800</t>
+          <t>9234</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>6480</t>
+          <t>6718</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>11976</t>
+          <t>11857</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>5,43%</t>
         </is>
       </c>
     </row>
@@ -1416,32 +1416,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7095</t>
+          <t>6542</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5164</t>
+          <t>4700</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9575</t>
+          <t>8970</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1451,32 +1451,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7859</t>
+          <t>9840</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5877</t>
+          <t>7227</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10430</t>
+          <t>13202</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1486,32 +1486,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>14954</t>
+          <t>16382</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>12206</t>
+          <t>12850</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>18311</t>
+          <t>19899</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>9,11%</t>
         </is>
       </c>
     </row>
@@ -1529,32 +1529,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28974</t>
+          <t>30533</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25129</t>
+          <t>25966</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32897</t>
+          <t>34825</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,06%</t>
+          <t>32,87%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,41%</t>
+          <t>27,96%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,81%</t>
+          <t>37,49%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1564,32 +1564,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>43799</t>
+          <t>46077</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>39411</t>
+          <t>41659</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>48593</t>
+          <t>51026</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>39,77%</t>
+          <t>36,69%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>35,78%</t>
+          <t>33,17%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>44,12%</t>
+          <t>40,63%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1599,32 +1599,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>72773</t>
+          <t>76610</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>66380</t>
+          <t>70409</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>78647</t>
+          <t>83696</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>37,75%</t>
+          <t>35,07%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>34,43%</t>
+          <t>32,23%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>40,8%</t>
+          <t>38,31%</t>
         </is>
       </c>
     </row>
@@ -1642,32 +1642,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>42671</t>
+          <t>51365</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>38707</t>
+          <t>46836</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>46875</t>
+          <t>55903</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>51,63%</t>
+          <t>55,3%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>46,84%</t>
+          <t>50,43%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>56,72%</t>
+          <t>60,19%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1677,32 +1677,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>53578</t>
+          <t>64876</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>48737</t>
+          <t>59374</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>58108</t>
+          <t>69507</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>48,65%</t>
+          <t>51,66%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>44,25%</t>
+          <t>47,28%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>52,76%</t>
+          <t>55,35%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1712,32 +1712,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>96250</t>
+          <t>116241</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>90107</t>
+          <t>108791</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>102581</t>
+          <t>122821</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>49,93%</t>
+          <t>53,21%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>46,74%</t>
+          <t>49,8%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>53,21%</t>
+          <t>56,22%</t>
         </is>
       </c>
     </row>
@@ -1755,17 +1755,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1790,17 +1790,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1825,17 +1825,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1872,32 +1872,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6628</t>
+          <t>5796</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>3865</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9159</t>
+          <t>8100</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1907,32 +1907,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2419</t>
+          <t>2094</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1293</t>
+          <t>1174</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>4048</t>
+          <t>3688</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1942,32 +1942,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>9047</t>
+          <t>7890</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>6720</t>
+          <t>5881</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>12364</t>
+          <t>10556</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>4,83%</t>
         </is>
       </c>
     </row>
@@ -1985,32 +1985,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12746</t>
+          <t>13914</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10261</t>
+          <t>10874</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16186</t>
+          <t>17268</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2020,32 +2020,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5553</t>
+          <t>5424</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3884</t>
+          <t>3575</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7944</t>
+          <t>7504</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2055,32 +2055,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>18299</t>
+          <t>19338</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>15240</t>
+          <t>16042</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>22328</t>
+          <t>23738</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>10,86%</t>
         </is>
       </c>
     </row>
@@ -2098,32 +2098,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>70308</t>
+          <t>62118</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>64326</t>
+          <t>56969</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>76083</t>
+          <t>67831</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>42,76%</t>
+          <t>39,52%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>39,12%</t>
+          <t>36,25%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>46,27%</t>
+          <t>43,16%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2133,32 +2133,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>24979</t>
+          <t>23406</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>21824</t>
+          <t>20116</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>28088</t>
+          <t>26729</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>39,05%</t>
+          <t>38,14%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>34,12%</t>
+          <t>32,78%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>43,91%</t>
+          <t>43,55%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2168,32 +2168,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>95287</t>
+          <t>85524</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>88560</t>
+          <t>79728</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>102710</t>
+          <t>92242</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>41,72%</t>
+          <t>39,13%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>38,77%</t>
+          <t>36,48%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>44,97%</t>
+          <t>42,21%</t>
         </is>
       </c>
     </row>
@@ -2211,32 +2211,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>74758</t>
+          <t>75350</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>69310</t>
+          <t>69622</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>81403</t>
+          <t>80764</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>45,46%</t>
+          <t>47,94%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>42,15%</t>
+          <t>44,3%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>49,5%</t>
+          <t>51,38%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2246,32 +2246,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>31011</t>
+          <t>30451</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>27504</t>
+          <t>26898</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>34558</t>
+          <t>33765</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>48,48%</t>
+          <t>49,61%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>43,0%</t>
+          <t>43,83%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>54,03%</t>
+          <t>55,02%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2281,32 +2281,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>105769</t>
+          <t>105800</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>98534</t>
+          <t>99178</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>112469</t>
+          <t>111794</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>46,31%</t>
+          <t>48,41%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>43,14%</t>
+          <t>45,38%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>49,24%</t>
+          <t>51,15%</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2324,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2359,17 +2359,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2394,17 +2394,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2441,32 +2441,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9412</t>
+          <t>10757</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7125</t>
+          <t>8188</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12342</t>
+          <t>14125</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2476,27 +2476,27 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10230</t>
+          <t>10733</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7709</t>
+          <t>8021</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>13282</t>
+          <t>13755</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
@@ -2511,32 +2511,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>19641</t>
+          <t>21490</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>16322</t>
+          <t>17329</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>23396</t>
+          <t>25841</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>7,11%</t>
         </is>
       </c>
     </row>
@@ -2554,32 +2554,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>14606</t>
+          <t>13223</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>11567</t>
+          <t>10697</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>18131</t>
+          <t>16551</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2589,32 +2589,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>15770</t>
+          <t>16494</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>12709</t>
+          <t>13522</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>19502</t>
+          <t>20341</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2624,32 +2624,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>30376</t>
+          <t>29717</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>25883</t>
+          <t>25281</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>35281</t>
+          <t>34639</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>9,53%</t>
         </is>
       </c>
     </row>
@@ -2667,32 +2667,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>70231</t>
+          <t>68401</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>65027</t>
+          <t>62813</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>76917</t>
+          <t>74105</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>39,88%</t>
+          <t>39,07%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>36,93%</t>
+          <t>35,87%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>43,68%</t>
+          <t>42,32%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2702,32 +2702,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>66086</t>
+          <t>66482</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>60368</t>
+          <t>60432</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>72260</t>
+          <t>72875</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>36,31%</t>
+          <t>35,29%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>33,17%</t>
+          <t>32,08%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>39,7%</t>
+          <t>38,68%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2737,32 +2737,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>136317</t>
+          <t>134883</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>128462</t>
+          <t>126598</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>144090</t>
+          <t>143268</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>38,07%</t>
+          <t>37,11%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>35,87%</t>
+          <t>34,83%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>40,24%</t>
+          <t>39,41%</t>
         </is>
       </c>
     </row>
@@ -2780,32 +2780,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>81850</t>
+          <t>82712</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>75120</t>
+          <t>76718</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>87444</t>
+          <t>88475</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>46,48%</t>
+          <t>47,24%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>42,66%</t>
+          <t>43,82%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>49,66%</t>
+          <t>50,53%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2815,32 +2815,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>89932</t>
+          <t>94685</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>84287</t>
+          <t>87999</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>95929</t>
+          <t>100699</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>49,41%</t>
+          <t>50,26%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>46,31%</t>
+          <t>46,71%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>52,7%</t>
+          <t>53,45%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2850,32 +2850,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>171781</t>
+          <t>177397</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>163327</t>
+          <t>169446</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>179537</t>
+          <t>186506</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>47,97%</t>
+          <t>48,8%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>45,61%</t>
+          <t>46,62%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>50,13%</t>
+          <t>51,31%</t>
         </is>
       </c>
     </row>
@@ -2893,17 +2893,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2928,17 +2928,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2963,17 +2963,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3010,32 +3010,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>4866</t>
+          <t>4547</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3300</t>
+          <t>3119</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>7024</t>
+          <t>6550</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3045,32 +3045,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>6851</t>
+          <t>6035</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>4918</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>9547</t>
+          <t>8427</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3080,32 +3080,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>11717</t>
+          <t>10582</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>9209</t>
+          <t>8094</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>14952</t>
+          <t>13626</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>6,76%</t>
         </is>
       </c>
     </row>
@@ -3123,32 +3123,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>8151</t>
+          <t>7871</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6114</t>
+          <t>5709</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>11254</t>
+          <t>10380</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3158,32 +3158,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>11646</t>
+          <t>10441</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>8840</t>
+          <t>8183</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>14950</t>
+          <t>13655</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3193,32 +3193,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>19797</t>
+          <t>18312</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>16322</t>
+          <t>14918</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>24634</t>
+          <t>22055</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>10,94%</t>
         </is>
       </c>
     </row>
@@ -3236,32 +3236,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>32144</t>
+          <t>29710</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>28339</t>
+          <t>26284</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>36099</t>
+          <t>33833</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>40,64%</t>
+          <t>38,33%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>35,83%</t>
+          <t>33,91%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>45,64%</t>
+          <t>43,65%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3271,32 +3271,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>59863</t>
+          <t>55912</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>54845</t>
+          <t>51232</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>64914</t>
+          <t>60748</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>44,98%</t>
+          <t>45,09%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>41,21%</t>
+          <t>41,32%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>48,78%</t>
+          <t>48,99%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3306,32 +3306,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>92007</t>
+          <t>85622</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>84827</t>
+          <t>80177</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>98591</t>
+          <t>92174</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>43,36%</t>
+          <t>42,49%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>39,98%</t>
+          <t>39,79%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>46,47%</t>
+          <t>45,74%</t>
         </is>
       </c>
     </row>
@@ -3349,32 +3349,32 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>33928</t>
+          <t>35380</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>29920</t>
+          <t>31311</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>37743</t>
+          <t>39009</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>42,9%</t>
+          <t>45,65%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>37,83%</t>
+          <t>40,4%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>47,72%</t>
+          <t>50,33%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -3384,32 +3384,32 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>54721</t>
+          <t>51615</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>49842</t>
+          <t>47005</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>60007</t>
+          <t>56006</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>41,12%</t>
+          <t>41,62%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>37,45%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>45,09%</t>
+          <t>45,16%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3419,32 +3419,32 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>88649</t>
+          <t>86995</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>81743</t>
+          <t>80512</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>95395</t>
+          <t>92520</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>41,78%</t>
+          <t>43,17%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>38,53%</t>
+          <t>39,95%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>44,96%</t>
+          <t>45,91%</t>
         </is>
       </c>
     </row>
@@ -3462,17 +3462,17 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3497,17 +3497,17 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3532,17 +3532,17 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3579,32 +3579,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>949</t>
+          <t>975</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>4120</t>
+          <t>3960</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3614,32 +3614,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>5111</t>
+          <t>5563</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>3681</t>
+          <t>3905</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>7329</t>
+          <t>7994</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3649,32 +3649,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>7063</t>
+          <t>7558</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>4948</t>
+          <t>5340</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>9891</t>
+          <t>10628</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>6,15%</t>
         </is>
       </c>
     </row>
@@ -3692,32 +3692,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>4483</t>
+          <t>5837</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>2865</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>6213</t>
+          <t>8392</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>16,38%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3727,32 +3727,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>8667</t>
+          <t>9017</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>6396</t>
+          <t>6664</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>11275</t>
+          <t>11785</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3762,32 +3762,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>13150</t>
+          <t>14854</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>10382</t>
+          <t>11679</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>16431</t>
+          <t>18344</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>10,62%</t>
         </is>
       </c>
     </row>
@@ -3805,32 +3805,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>18104</t>
+          <t>19402</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>15444</t>
+          <t>16515</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>21035</t>
+          <t>22916</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>38,46%</t>
+          <t>37,86%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>32,23%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>44,69%</t>
+          <t>44,72%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3840,32 +3840,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>49809</t>
+          <t>48917</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>44623</t>
+          <t>44212</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>54746</t>
+          <t>53486</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>41,41%</t>
+          <t>40,28%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>37,1%</t>
+          <t>36,41%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>45,52%</t>
+          <t>44,04%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3875,32 +3875,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>67913</t>
+          <t>68319</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>62201</t>
+          <t>62328</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>74086</t>
+          <t>74613</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>40,58%</t>
+          <t>39,56%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>37,17%</t>
+          <t>36,09%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>44,27%</t>
+          <t>43,21%</t>
         </is>
       </c>
     </row>
@@ -3918,32 +3918,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>22529</t>
+          <t>24011</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>19567</t>
+          <t>20799</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>25512</t>
+          <t>27116</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>47,87%</t>
+          <t>46,86%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>41,57%</t>
+          <t>40,59%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>54,2%</t>
+          <t>52,91%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3953,32 +3953,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>56691</t>
+          <t>57946</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>51728</t>
+          <t>53112</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>61673</t>
+          <t>62784</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>47,13%</t>
+          <t>47,71%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>43,01%</t>
+          <t>43,73%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>51,28%</t>
+          <t>51,7%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3988,32 +3988,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>79220</t>
+          <t>81958</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>73335</t>
+          <t>75836</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>85243</t>
+          <t>87857</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>47,34%</t>
+          <t>47,46%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>43,82%</t>
+          <t>43,91%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>50,94%</t>
+          <t>50,88%</t>
         </is>
       </c>
     </row>
@@ -4031,17 +4031,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4066,17 +4066,17 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4101,17 +4101,17 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4148,102 +4148,102 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>34438</t>
+          <t>35801</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>29663</t>
+          <t>30855</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>39471</t>
+          <t>41133</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
+          <t>4,28%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>5,7%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>38509</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>33839</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>44495</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>4,83%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
           <t>4,25%</t>
         </is>
       </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>5,65%</t>
-        </is>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>36919</t>
-        </is>
-      </c>
-      <c r="L34" s="2" t="inlineStr">
-        <is>
-          <t>32071</t>
-        </is>
-      </c>
-      <c r="M34" s="2" t="inlineStr">
-        <is>
-          <t>42169</t>
-        </is>
-      </c>
-      <c r="N34" s="2" t="inlineStr">
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>5,58%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>74310</t>
+        </is>
+      </c>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>66911</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
+          <t>82564</t>
+        </is>
+      </c>
+      <c r="U34" s="2" t="inlineStr">
         <is>
           <t>4,89%</t>
         </is>
       </c>
-      <c r="O34" s="2" t="inlineStr">
-        <is>
-          <t>4,25%</t>
-        </is>
-      </c>
-      <c r="P34" s="2" t="inlineStr">
-        <is>
-          <t>5,58%</t>
-        </is>
-      </c>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>422</t>
-        </is>
-      </c>
-      <c r="R34" s="2" t="inlineStr">
-        <is>
-          <t>71356</t>
-        </is>
-      </c>
-      <c r="S34" s="2" t="inlineStr">
-        <is>
-          <t>64734</t>
-        </is>
-      </c>
-      <c r="T34" s="2" t="inlineStr">
-        <is>
-          <t>78778</t>
-        </is>
-      </c>
-      <c r="U34" s="2" t="inlineStr">
-        <is>
-          <t>4,91%</t>
-        </is>
-      </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,44%</t>
         </is>
       </c>
     </row>
@@ -4261,32 +4261,32 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>59647</t>
+          <t>62332</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>53421</t>
+          <t>54781</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>66327</t>
+          <t>68925</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4296,32 +4296,32 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>61945</t>
+          <t>66280</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>55600</t>
+          <t>59098</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>68644</t>
+          <t>73560</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4331,32 +4331,32 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>121592</t>
+          <t>128612</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>113288</t>
+          <t>119582</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>131169</t>
+          <t>138780</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>9,14%</t>
         </is>
       </c>
     </row>
@@ -4374,32 +4374,32 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>277371</t>
+          <t>271939</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>265658</t>
+          <t>260637</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>288345</t>
+          <t>284718</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>37,7%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>38,03%</t>
+          <t>36,13%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>41,28%</t>
+          <t>39,47%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4409,32 +4409,32 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>292625</t>
+          <t>296847</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>280076</t>
+          <t>284279</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>304870</t>
+          <t>308852</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>38,73%</t>
+          <t>37,25%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>37,07%</t>
+          <t>35,67%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>40,36%</t>
+          <t>38,76%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4444,32 +4444,32 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>569995</t>
+          <t>568786</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>552506</t>
+          <t>551141</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>586741</t>
+          <t>586212</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>39,2%</t>
+          <t>37,46%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>38,0%</t>
+          <t>36,3%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>40,35%</t>
+          <t>38,61%</t>
         </is>
       </c>
     </row>
@@ -4487,32 +4487,32 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>327106</t>
+          <t>351334</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>316061</t>
+          <t>338672</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>338752</t>
+          <t>363335</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>46,83%</t>
+          <t>48,7%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>45,24%</t>
+          <t>46,95%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>48,49%</t>
+          <t>50,36%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4522,32 +4522,32 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>363970</t>
+          <t>395296</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>350295</t>
+          <t>382780</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>375963</t>
+          <t>409145</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>48,18%</t>
+          <t>49,6%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>46,37%</t>
+          <t>48,03%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>49,77%</t>
+          <t>51,34%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4557,32 +4557,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>691075</t>
+          <t>746629</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>673788</t>
+          <t>728412</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>708795</t>
+          <t>764263</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>47,53%</t>
+          <t>49,17%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>46,34%</t>
+          <t>47,97%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>48,75%</t>
+          <t>50,34%</t>
         </is>
       </c>
     </row>
@@ -4600,17 +4600,17 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4635,17 +4635,17 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4670,17 +4670,17 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">

--- a/data/trans_orig/ENTORNO_EJER-Clase-trans_orig.xlsx
+++ b/data/trans_orig/ENTORNO_EJER-Clase-trans_orig.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Entorno ejercicio físico en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Entorno ejercicio físico en C.Valenciana (tasa de respuesta: 93,5%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -729,107 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8264</t>
+          <t>4318</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>1892</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11604</t>
+          <t>9581</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9292</t>
+          <t>6269</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7074</t>
+          <t>3188</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>12718</t>
+          <t>11646</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>18</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>17556</t>
+          <t>10586</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>13826</t>
+          <t>6399</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>21586</t>
+          <t>16727</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>2,93%</t>
         </is>
       </c>
     </row>
@@ -842,107 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14945</t>
+          <t>11638</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11936</t>
+          <t>7541</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18918</t>
+          <t>17677</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15063</t>
+          <t>15617</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11850</t>
+          <t>10031</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18457</t>
+          <t>23616</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>47</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>30008</t>
+          <t>27256</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>25689</t>
+          <t>20041</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>35687</t>
+          <t>37214</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>6,51%</t>
         </is>
       </c>
     </row>
@@ -955,107 +955,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>255</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>61775</t>
+          <t>145199</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>56028</t>
+          <t>131708</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>67643</t>
+          <t>159759</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,88%</t>
+          <t>49,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>33,45%</t>
+          <t>44,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>40,38%</t>
+          <t>54,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>209</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>56054</t>
+          <t>121753</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>50598</t>
+          <t>108951</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>61901</t>
+          <t>135518</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>31,82%</t>
+          <t>43,96%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>28,73%</t>
+          <t>39,34%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>35,14%</t>
+          <t>48,93%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>464</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>117829</t>
+          <t>266952</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>110514</t>
+          <t>247865</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>126280</t>
+          <t>286338</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>34,29%</t>
+          <t>46,69%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>32,16%</t>
+          <t>43,35%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>36,75%</t>
+          <t>50,08%</t>
         </is>
       </c>
     </row>
@@ -1068,107 +1068,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82515</t>
+          <t>133652</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>76995</t>
+          <t>118080</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>89441</t>
+          <t>147772</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,26%</t>
+          <t>45,34%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>45,97%</t>
+          <t>40,05%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>53,4%</t>
+          <t>50,13%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>225</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>95724</t>
+          <t>133306</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>89196</t>
+          <t>120851</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>102121</t>
+          <t>146979</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>54,35%</t>
+          <t>48,13%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>50,64%</t>
+          <t>43,64%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>57,98%</t>
+          <t>53,07%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>455</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>178238</t>
+          <t>266958</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>169270</t>
+          <t>248175</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>186619</t>
+          <t>288608</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>51,87%</t>
+          <t>46,69%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>49,26%</t>
+          <t>43,41%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>54,31%</t>
+          <t>50,48%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1181,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>515</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>167499</t>
+          <t>294807</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>167499</t>
+          <t>294807</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>167499</t>
+          <t>294807</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1216,22 +1216,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>469</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>176133</t>
+          <t>276945</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>176133</t>
+          <t>276945</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>176133</t>
+          <t>276945</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1251,22 +1251,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1738</t>
+          <t>984</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>343632</t>
+          <t>571752</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>343632</t>
+          <t>571752</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>343632</t>
+          <t>571752</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1298,107 +1298,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4442</t>
+          <t>7330</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2911</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6585</t>
+          <t>13290</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4793</t>
+          <t>3776</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3269</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6919</t>
+          <t>8206</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
+          <t>0,69%</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>3,54%</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>11105</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>6520</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>17076</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
           <t>2,6%</t>
         </is>
       </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>5,51%</t>
-        </is>
-      </c>
-      <c r="Q9" s="2" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>9234</t>
-        </is>
-      </c>
-      <c r="S9" s="2" t="inlineStr">
-        <is>
-          <t>6718</t>
-        </is>
-      </c>
-      <c r="T9" s="2" t="inlineStr">
-        <is>
-          <t>11857</t>
-        </is>
-      </c>
-      <c r="U9" s="2" t="inlineStr">
-        <is>
-          <t>4,23%</t>
-        </is>
-      </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>3,99%</t>
         </is>
       </c>
     </row>
@@ -1411,107 +1411,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6542</t>
+          <t>6909</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4700</t>
+          <t>3405</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8970</t>
+          <t>12959</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9840</t>
+          <t>5493</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7227</t>
+          <t>2645</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13202</t>
+          <t>10018</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>20</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>16382</t>
+          <t>12402</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>12850</t>
+          <t>7310</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>19899</t>
+          <t>19471</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>4,55%</t>
         </is>
       </c>
     </row>
@@ -1524,107 +1524,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30533</t>
+          <t>104604</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25966</t>
+          <t>93340</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>34825</t>
+          <t>116304</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,87%</t>
+          <t>53,43%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>47,68%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>59,41%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>196</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>46077</t>
+          <t>116216</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>41659</t>
+          <t>104162</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>51026</t>
+          <t>128596</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>36,69%</t>
+          <t>50,1%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>33,17%</t>
+          <t>44,9%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>40,63%</t>
+          <t>55,43%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>377</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>76610</t>
+          <t>220820</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>70409</t>
+          <t>205957</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>83696</t>
+          <t>235543</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>35,07%</t>
+          <t>51,62%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>32,23%</t>
+          <t>48,15%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>38,31%</t>
+          <t>55,07%</t>
         </is>
       </c>
     </row>
@@ -1637,107 +1637,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>143</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>51365</t>
+          <t>76930</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>46836</t>
+          <t>65768</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>55903</t>
+          <t>87915</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>55,3%</t>
+          <t>39,3%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>50,43%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>60,19%</t>
+          <t>44,91%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>182</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>64876</t>
+          <t>106494</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>59374</t>
+          <t>94006</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>69507</t>
+          <t>118537</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>51,66%</t>
+          <t>45,91%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>47,28%</t>
+          <t>40,52%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>55,35%</t>
+          <t>51,1%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>325</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>116241</t>
+          <t>183423</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>108791</t>
+          <t>167435</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>122821</t>
+          <t>198223</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>53,21%</t>
+          <t>42,88%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>49,8%</t>
+          <t>39,14%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>56,22%</t>
+          <t>46,34%</t>
         </is>
       </c>
     </row>
@@ -1750,22 +1750,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>92882</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>92882</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>92882</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1785,22 +1785,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>394</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>125585</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>125585</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>125585</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1820,22 +1820,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>741</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>218467</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>218467</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>218467</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1867,107 +1867,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5796</t>
+          <t>2052</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3865</t>
+          <t>618</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8100</t>
+          <t>5282</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2094</t>
+          <t>1489</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1174</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>3688</t>
+          <t>4783</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>7890</t>
+          <t>3541</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>5881</t>
+          <t>1322</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>10556</t>
+          <t>7553</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>2,88%</t>
         </is>
       </c>
     </row>
@@ -1980,107 +1980,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13914</t>
+          <t>7791</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10874</t>
+          <t>3865</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17268</t>
+          <t>12977</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5424</t>
+          <t>2929</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3575</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7504</t>
+          <t>7123</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>17</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>19338</t>
+          <t>10720</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>16042</t>
+          <t>6069</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>23738</t>
+          <t>17124</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>6,52%</t>
         </is>
       </c>
     </row>
@@ -2093,107 +2093,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>201</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>62118</t>
+          <t>100107</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>56969</t>
+          <t>90409</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>67831</t>
+          <t>110439</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>39,52%</t>
+          <t>55,51%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>36,25%</t>
+          <t>50,13%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>43,16%</t>
+          <t>61,24%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>23406</t>
+          <t>39188</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>20116</t>
+          <t>32800</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>26729</t>
+          <t>45813</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>38,14%</t>
+          <t>47,6%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>32,78%</t>
+          <t>39,84%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>43,55%</t>
+          <t>55,65%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>278</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>85524</t>
+          <t>139294</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>79728</t>
+          <t>127972</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>92242</t>
+          <t>151602</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>39,13%</t>
+          <t>53,03%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>36,48%</t>
+          <t>48,72%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>42,21%</t>
+          <t>57,72%</t>
         </is>
       </c>
     </row>
@@ -2206,107 +2206,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>75350</t>
+          <t>70401</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>69622</t>
+          <t>60094</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>80764</t>
+          <t>80149</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>47,94%</t>
+          <t>39,04%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>44,3%</t>
+          <t>33,32%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>51,38%</t>
+          <t>44,44%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>30451</t>
+          <t>38715</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>26898</t>
+          <t>32153</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>33765</t>
+          <t>45762</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>49,61%</t>
+          <t>47,03%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>43,83%</t>
+          <t>39,06%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>55,02%</t>
+          <t>55,59%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>200</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>105800</t>
+          <t>109116</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>99178</t>
+          <t>96733</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>111794</t>
+          <t>120882</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>48,41%</t>
+          <t>41,54%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>45,38%</t>
+          <t>36,83%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>51,15%</t>
+          <t>46,02%</t>
         </is>
       </c>
     </row>
@@ -2319,22 +2319,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>345</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>157178</t>
+          <t>180351</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>157178</t>
+          <t>180351</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>157178</t>
+          <t>180351</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2354,22 +2354,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>156</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>61374</t>
+          <t>82320</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>61374</t>
+          <t>82320</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>61374</t>
+          <t>82320</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2389,22 +2389,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1292</t>
+          <t>501</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>218552</t>
+          <t>262671</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>218552</t>
+          <t>262671</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>218552</t>
+          <t>262671</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2436,107 +2436,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10757</t>
+          <t>8879</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8188</t>
+          <t>5161</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14125</t>
+          <t>14450</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10733</t>
+          <t>7756</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8021</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>13755</t>
+          <t>13412</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>27</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>21490</t>
+          <t>16636</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>17329</t>
+          <t>11242</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>25841</t>
+          <t>24765</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>3,98%</t>
         </is>
       </c>
     </row>
@@ -2549,107 +2549,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>13223</t>
+          <t>16588</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>10697</t>
+          <t>10454</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>16551</t>
+          <t>24937</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>16494</t>
+          <t>15946</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>13522</t>
+          <t>10565</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>20341</t>
+          <t>23600</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>50</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>29717</t>
+          <t>32533</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>25281</t>
+          <t>23435</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>34639</t>
+          <t>42967</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>6,91%</t>
         </is>
       </c>
     </row>
@@ -2662,107 +2662,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>68401</t>
+          <t>139551</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>62813</t>
+          <t>126168</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>74105</t>
+          <t>153273</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>39,07%</t>
+          <t>45,53%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>35,87%</t>
+          <t>41,17%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>42,32%</t>
+          <t>50,01%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>271</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>66482</t>
+          <t>149122</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>60432</t>
+          <t>134141</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>72875</t>
+          <t>163416</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>35,29%</t>
+          <t>47,23%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>32,08%</t>
+          <t>42,49%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>38,68%</t>
+          <t>51,76%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>539</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>134883</t>
+          <t>288672</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>126598</t>
+          <t>270128</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>143268</t>
+          <t>309525</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>37,11%</t>
+          <t>46,4%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>34,83%</t>
+          <t>43,42%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>39,41%</t>
+          <t>49,75%</t>
         </is>
       </c>
     </row>
@@ -2775,107 +2775,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>82712</t>
+          <t>141461</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>76718</t>
+          <t>128400</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>88475</t>
+          <t>155958</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>47,24%</t>
+          <t>46,16%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>43,82%</t>
+          <t>41,9%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>50,53%</t>
+          <t>50,89%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>245</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>94685</t>
+          <t>142880</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>87999</t>
+          <t>129881</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>100699</t>
+          <t>159094</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>50,26%</t>
+          <t>45,26%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>46,71%</t>
+          <t>41,14%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>53,45%</t>
+          <t>50,39%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>996</t>
+          <t>513</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>177397</t>
+          <t>284341</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>169446</t>
+          <t>263351</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>186506</t>
+          <t>303622</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
+          <t>45,7%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>42,33%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
           <t>48,8%</t>
-        </is>
-      </c>
-      <c r="V22" s="2" t="inlineStr">
-        <is>
-          <t>46,62%</t>
-        </is>
-      </c>
-      <c r="W22" s="2" t="inlineStr">
-        <is>
-          <t>51,31%</t>
         </is>
       </c>
     </row>
@@ -2888,22 +2888,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>575</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>175093</t>
+          <t>306479</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>175093</t>
+          <t>306479</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>175093</t>
+          <t>306479</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2923,22 +2923,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>554</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>188394</t>
+          <t>315704</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>188394</t>
+          <t>315704</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>188394</t>
+          <t>315704</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2958,22 +2958,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>1129</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>363487</t>
+          <t>622182</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>363487</t>
+          <t>622182</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>363487</t>
+          <t>622182</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3005,107 +3005,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>4547</t>
+          <t>1508</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3119</t>
+          <t>324</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>6550</t>
+          <t>4447</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>6035</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>4362</t>
+          <t>2036</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>8427</t>
+          <t>8918</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>11</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>10582</t>
+          <t>6030</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>8094</t>
+          <t>3168</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>13626</t>
+          <t>11010</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>3,61%</t>
         </is>
       </c>
     </row>
@@ -3118,107 +3118,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>7871</t>
+          <t>4246</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5709</t>
+          <t>1722</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>10380</t>
+          <t>8264</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>10441</t>
+          <t>5547</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>8183</t>
+          <t>2826</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>13655</t>
+          <t>10789</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>20</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>18312</t>
+          <t>9793</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>14918</t>
+          <t>6161</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>22055</t>
+          <t>16480</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>5,4%</t>
         </is>
       </c>
     </row>
@@ -3231,107 +3231,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>143</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>29710</t>
+          <t>85448</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>26284</t>
+          <t>75965</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>33833</t>
+          <t>95269</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>38,33%</t>
+          <t>56,63%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>33,91%</t>
+          <t>50,34%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>43,65%</t>
+          <t>63,14%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>140</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>55912</t>
+          <t>80435</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>51232</t>
+          <t>70613</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>60748</t>
+          <t>90003</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>45,09%</t>
+          <t>52,13%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>41,32%</t>
+          <t>45,76%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>48,99%</t>
+          <t>58,33%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>283</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>85622</t>
+          <t>165883</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>80177</t>
+          <t>150670</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>92174</t>
+          <t>179751</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>42,49%</t>
+          <t>54,35%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>39,79%</t>
+          <t>49,37%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>45,74%</t>
+          <t>58,9%</t>
         </is>
       </c>
     </row>
@@ -3344,107 +3344,107 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>35380</t>
+          <t>59691</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>31311</t>
+          <t>50322</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>39009</t>
+          <t>69447</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>45,65%</t>
+          <t>39,56%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>40,4%</t>
+          <t>33,35%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>50,33%</t>
+          <t>46,02%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>105</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>51615</t>
+          <t>63795</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>47005</t>
+          <t>54724</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>56006</t>
+          <t>73551</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>41,62%</t>
+          <t>41,34%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>35,47%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>45,16%</t>
+          <t>47,67%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>86995</t>
+          <t>123486</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>80512</t>
+          <t>109507</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>92520</t>
+          <t>137625</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>43,17%</t>
+          <t>40,46%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>39,95%</t>
+          <t>35,88%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>45,91%</t>
+          <t>45,09%</t>
         </is>
       </c>
     </row>
@@ -3457,22 +3457,22 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>77507</t>
+          <t>150893</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>77507</t>
+          <t>150893</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>77507</t>
+          <t>150893</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3492,22 +3492,22 @@
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>265</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>124003</t>
+          <t>154299</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>124003</t>
+          <t>154299</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>124003</t>
+          <t>154299</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3527,22 +3527,22 @@
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>526</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>201510</t>
+          <t>305192</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>201510</t>
+          <t>305192</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>201510</t>
+          <t>305192</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3574,107 +3574,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>5563</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>3905</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>7994</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>7558</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>5340</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>10628</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3687,107 +3687,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>5837</t>
+          <t>367</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>3972</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>8392</t>
+          <t>2040</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>21,82%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>9017</t>
+          <t>1908</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>6664</t>
+          <t>505</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>11785</t>
+          <t>5056</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>44,35%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>14854</t>
+          <t>2274</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>11679</t>
+          <t>534</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>18344</t>
+          <t>5272</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>25,41%</t>
         </is>
       </c>
     </row>
@@ -3800,107 +3800,107 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>19402</t>
+          <t>6708</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>16515</t>
+          <t>3678</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>22916</t>
+          <t>8406</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>37,86%</t>
+          <t>71,76%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>32,23%</t>
+          <t>39,35%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>44,72%</t>
+          <t>89,93%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>48917</t>
+          <t>9274</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>44212</t>
+          <t>6190</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>53486</t>
+          <t>10695</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>40,28%</t>
+          <t>81,34%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>36,41%</t>
+          <t>54,29%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>44,04%</t>
+          <t>93,8%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>68319</t>
+          <t>15982</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>62328</t>
+          <t>11816</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>74613</t>
+          <t>18683</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>77,02%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>36,09%</t>
+          <t>56,95%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>43,21%</t>
+          <t>90,04%</t>
         </is>
       </c>
     </row>
@@ -3913,107 +3913,107 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>24011</t>
+          <t>2274</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>20799</t>
+          <t>562</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>27116</t>
+          <t>5469</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>46,86%</t>
+          <t>24,32%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>40,59%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>52,91%</t>
+          <t>58,5%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>57946</t>
+          <t>220</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>53112</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>62784</t>
+          <t>1212</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>47,71%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>43,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>51,7%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>81958</t>
+          <t>2494</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>75836</t>
+          <t>703</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>87857</t>
+          <t>6636</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>47,46%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>43,91%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>50,88%</t>
+          <t>31,98%</t>
         </is>
       </c>
     </row>
@@ -4026,22 +4026,22 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>51246</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>51246</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>51246</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4061,22 +4061,22 @@
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>121443</t>
+          <t>11402</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>121443</t>
+          <t>11402</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>121443</t>
+          <t>11402</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4096,22 +4096,22 @@
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>970</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>172689</t>
+          <t>20750</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>172689</t>
+          <t>20750</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>172689</t>
+          <t>20750</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4143,107 +4143,107 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>35801</t>
+          <t>24087</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>30855</t>
+          <t>17183</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>41133</t>
+          <t>32805</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>38509</t>
+          <t>23812</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>33839</t>
+          <t>16770</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>44495</t>
+          <t>33110</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>81</t>
         </is>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>74310</t>
+          <t>47898</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>66911</t>
+          <t>38277</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>82564</t>
+          <t>61145</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>2,77%</t>
         </is>
       </c>
     </row>
@@ -4256,107 +4256,107 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>62332</t>
+          <t>47538</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>54781</t>
+          <t>36289</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>68925</t>
+          <t>59370</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>81</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>66280</t>
+          <t>47440</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>59098</t>
+          <t>37079</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>73560</t>
+          <t>59774</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>158</t>
         </is>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>128612</t>
+          <t>94977</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>119582</t>
+          <t>80920</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>138780</t>
+          <t>113987</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>5,16%</t>
         </is>
       </c>
     </row>
@@ -4369,107 +4369,107 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>1556</t>
+          <t>1059</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>271939</t>
+          <t>581616</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>260637</t>
+          <t>553314</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>284718</t>
+          <t>607846</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>37,7%</t>
+          <t>51,12%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>36,13%</t>
+          <t>48,64%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>39,47%</t>
+          <t>53,43%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>1678</t>
+          <t>907</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>296847</t>
+          <t>515988</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>284279</t>
+          <t>488777</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>308852</t>
+          <t>542831</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>37,25%</t>
+          <t>48,1%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>35,67%</t>
+          <t>45,57%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>38,76%</t>
+          <t>50,61%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>3234</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>568786</t>
+          <t>1097604</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>551141</t>
+          <t>1061348</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>586212</t>
+          <t>1132514</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>37,46%</t>
+          <t>49,66%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>36,3%</t>
+          <t>48,02%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>38,61%</t>
+          <t>51,24%</t>
         </is>
       </c>
     </row>
@@ -4482,107 +4482,107 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>1908</t>
+          <t>879</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>351334</t>
+          <t>484409</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>338672</t>
+          <t>458506</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>363335</t>
+          <t>513180</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>48,7%</t>
+          <t>42,58%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>46,95%</t>
+          <t>40,3%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>50,36%</t>
+          <t>45,11%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>2145</t>
+          <t>830</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>395296</t>
+          <t>485410</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>382780</t>
+          <t>457813</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>409145</t>
+          <t>512469</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>49,6%</t>
+          <t>45,25%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>48,03%</t>
+          <t>42,68%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>51,34%</t>
+          <t>47,78%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>4053</t>
+          <t>1709</t>
         </is>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>746629</t>
+          <t>969819</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>728412</t>
+          <t>931566</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>764263</t>
+          <t>1004951</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>49,17%</t>
+          <t>43,88%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>47,97%</t>
+          <t>42,15%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>50,34%</t>
+          <t>45,47%</t>
         </is>
       </c>
     </row>
@@ -4595,22 +4595,22 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>4009</t>
+          <t>2058</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>721406</t>
+          <t>1137649</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>721406</t>
+          <t>1137649</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>721406</t>
+          <t>1137649</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4630,22 +4630,22 @@
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>4417</t>
+          <t>1856</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>796931</t>
+          <t>1072649</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>796931</t>
+          <t>1072649</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>796931</t>
+          <t>1072649</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4665,22 +4665,22 @@
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>8426</t>
+          <t>3914</t>
         </is>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>1518337</t>
+          <t>2210298</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>1518337</t>
+          <t>2210298</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>1518337</t>
+          <t>2210298</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -4769,7 +4769,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Entorno ejercicio físico en C.Valenciana (tasa de respuesta: 93,5%)</t>
+          <t>Entorno ejercicio físico en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4954,107 +4954,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4318</t>
+          <t>8264</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1892</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9581</t>
+          <t>11604</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6269</t>
+          <t>9292</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3188</t>
+          <t>7074</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>11646</t>
+          <t>12718</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>89</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>10586</t>
+          <t>17556</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>6399</t>
+          <t>13826</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>16727</t>
+          <t>21586</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>6,28%</t>
         </is>
       </c>
     </row>
@@ -5067,107 +5067,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11638</t>
+          <t>14945</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7541</t>
+          <t>11936</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17677</t>
+          <t>18918</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15617</t>
+          <t>15063</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10031</t>
+          <t>11850</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23616</t>
+          <t>18457</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>152</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>27256</t>
+          <t>30008</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>20041</t>
+          <t>25689</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>37214</t>
+          <t>35687</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>10,39%</t>
         </is>
       </c>
     </row>
@@ -5180,107 +5180,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>145199</t>
+          <t>61775</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>131708</t>
+          <t>56028</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>159759</t>
+          <t>67643</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>49,25%</t>
+          <t>36,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>44,68%</t>
+          <t>33,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>54,19%</t>
+          <t>40,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>285</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>121753</t>
+          <t>56054</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>108951</t>
+          <t>50598</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>135518</t>
+          <t>61901</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>43,96%</t>
+          <t>31,82%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>39,34%</t>
+          <t>28,73%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>48,93%</t>
+          <t>35,14%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>619</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>266952</t>
+          <t>117829</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>247865</t>
+          <t>110514</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>286338</t>
+          <t>126280</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>46,69%</t>
+          <t>34,29%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>43,35%</t>
+          <t>32,16%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>50,08%</t>
+          <t>36,75%</t>
         </is>
       </c>
     </row>
@@ -5293,107 +5293,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>412</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>133652</t>
+          <t>82515</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>118080</t>
+          <t>76995</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>147772</t>
+          <t>89441</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45,34%</t>
+          <t>49,26%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,05%</t>
+          <t>45,97%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>50,13%</t>
+          <t>53,4%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>466</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>133306</t>
+          <t>95724</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>120851</t>
+          <t>89196</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>146979</t>
+          <t>102121</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>48,13%</t>
+          <t>54,35%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>43,64%</t>
+          <t>50,64%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>53,07%</t>
+          <t>57,98%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>878</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>266958</t>
+          <t>178238</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>248175</t>
+          <t>169270</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>288608</t>
+          <t>186619</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>46,69%</t>
+          <t>51,87%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>43,41%</t>
+          <t>49,26%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>50,48%</t>
+          <t>54,31%</t>
         </is>
       </c>
     </row>
@@ -5406,22 +5406,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>858</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>294807</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>294807</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>294807</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -5441,22 +5441,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>880</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>276945</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>276945</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>276945</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -5476,22 +5476,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>984</t>
+          <t>1738</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>571752</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>571752</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>571752</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -5523,107 +5523,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7330</t>
+          <t>4442</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4234</t>
+          <t>2911</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13290</t>
+          <t>6585</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3776</t>
+          <t>4793</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>3269</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8206</t>
+          <t>6919</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>54</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>11105</t>
+          <t>9234</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>6520</t>
+          <t>6718</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>17076</t>
+          <t>11857</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>5,43%</t>
         </is>
       </c>
     </row>
@@ -5636,107 +5636,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6909</t>
+          <t>6542</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3405</t>
+          <t>4700</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12959</t>
+          <t>8970</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5493</t>
+          <t>9840</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2645</t>
+          <t>7227</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10018</t>
+          <t>13202</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>94</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>12402</t>
+          <t>16382</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>7310</t>
+          <t>12850</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>19471</t>
+          <t>19899</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>9,11%</t>
         </is>
       </c>
     </row>
@@ -5749,107 +5749,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>104604</t>
+          <t>30533</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>93340</t>
+          <t>25966</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>116304</t>
+          <t>34825</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>53,43%</t>
+          <t>32,87%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>47,68%</t>
+          <t>27,96%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>59,41%</t>
+          <t>37,49%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>254</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>116216</t>
+          <t>46077</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>104162</t>
+          <t>41659</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>128596</t>
+          <t>51026</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>50,1%</t>
+          <t>36,69%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>44,9%</t>
+          <t>33,17%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>55,43%</t>
+          <t>40,63%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>220820</t>
+          <t>76610</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>205957</t>
+          <t>70409</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>235543</t>
+          <t>83696</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>51,62%</t>
+          <t>35,07%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>48,15%</t>
+          <t>32,23%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>55,07%</t>
+          <t>38,31%</t>
         </is>
       </c>
     </row>
@@ -5862,107 +5862,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>258</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>76930</t>
+          <t>51365</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>65768</t>
+          <t>46836</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>87915</t>
+          <t>55903</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>39,3%</t>
+          <t>55,3%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>33,59%</t>
+          <t>50,43%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>44,91%</t>
+          <t>60,19%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>339</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>106494</t>
+          <t>64876</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>94006</t>
+          <t>59374</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>118537</t>
+          <t>69507</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>45,91%</t>
+          <t>51,66%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>40,52%</t>
+          <t>47,28%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>51,1%</t>
+          <t>55,35%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>597</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>183423</t>
+          <t>116241</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>167435</t>
+          <t>108791</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>198223</t>
+          <t>122821</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>42,88%</t>
+          <t>53,21%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>39,14%</t>
+          <t>49,8%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>46,34%</t>
+          <t>56,22%</t>
         </is>
       </c>
     </row>
@@ -5975,22 +5975,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -6010,22 +6010,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>675</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -6045,22 +6045,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -6092,107 +6092,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2052</t>
+          <t>5796</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>3865</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5282</t>
+          <t>8100</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1489</t>
+          <t>2094</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1174</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>4783</t>
+          <t>3688</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>51</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>3541</t>
+          <t>7890</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1322</t>
+          <t>5881</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>7553</t>
+          <t>10556</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>4,83%</t>
         </is>
       </c>
     </row>
@@ -6205,107 +6205,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7791</t>
+          <t>13914</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3865</t>
+          <t>10874</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12977</t>
+          <t>17268</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2929</t>
+          <t>5424</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>3575</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7123</t>
+          <t>7504</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>106</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>10720</t>
+          <t>19338</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>6069</t>
+          <t>16042</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>17124</t>
+          <t>23738</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>10,86%</t>
         </is>
       </c>
     </row>
@@ -6318,107 +6318,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>374</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>100107</t>
+          <t>62118</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>90409</t>
+          <t>56969</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>110439</t>
+          <t>67831</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>55,51%</t>
+          <t>39,52%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>50,13%</t>
+          <t>36,25%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>61,24%</t>
+          <t>43,16%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>146</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>39188</t>
+          <t>23406</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>32800</t>
+          <t>20116</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>45813</t>
+          <t>26729</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>47,6%</t>
+          <t>38,14%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>39,84%</t>
+          <t>32,78%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>55,65%</t>
+          <t>43,55%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>520</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>139294</t>
+          <t>85524</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>127972</t>
+          <t>79728</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>151602</t>
+          <t>92242</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>53,03%</t>
+          <t>39,13%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>48,72%</t>
+          <t>36,48%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>57,72%</t>
+          <t>42,21%</t>
         </is>
       </c>
     </row>
@@ -6431,107 +6431,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>434</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>70401</t>
+          <t>75350</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>60094</t>
+          <t>69622</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>80149</t>
+          <t>80764</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>39,04%</t>
+          <t>47,94%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>33,32%</t>
+          <t>44,3%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>44,44%</t>
+          <t>51,38%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>181</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>38715</t>
+          <t>30451</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>32153</t>
+          <t>26898</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>45762</t>
+          <t>33765</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>47,03%</t>
+          <t>49,61%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>39,06%</t>
+          <t>43,83%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>55,59%</t>
+          <t>55,02%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>615</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>109116</t>
+          <t>105800</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>96733</t>
+          <t>99178</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>120882</t>
+          <t>111794</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>41,54%</t>
+          <t>48,41%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>36,83%</t>
+          <t>45,38%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>46,02%</t>
+          <t>51,15%</t>
         </is>
       </c>
     </row>
@@ -6544,22 +6544,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>923</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>180351</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>180351</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>180351</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -6579,22 +6579,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>369</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>82320</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>82320</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>82320</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -6614,22 +6614,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>262671</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>262671</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>262671</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -6661,107 +6661,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8879</t>
+          <t>10757</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5161</t>
+          <t>8188</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14450</t>
+          <t>14125</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7756</t>
+          <t>10733</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4200</t>
+          <t>8021</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>13412</t>
+          <t>13755</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>120</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>16636</t>
+          <t>21490</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>11242</t>
+          <t>17329</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>24765</t>
+          <t>25841</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>7,11%</t>
         </is>
       </c>
     </row>
@@ -6774,107 +6774,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>16588</t>
+          <t>13223</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>10454</t>
+          <t>10697</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>24937</t>
+          <t>16551</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>15946</t>
+          <t>16494</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>10565</t>
+          <t>13522</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>23600</t>
+          <t>20341</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>179</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>32533</t>
+          <t>29717</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>23435</t>
+          <t>25281</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>42967</t>
+          <t>34639</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>9,53%</t>
         </is>
       </c>
     </row>
@@ -6887,107 +6887,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>139551</t>
+          <t>68401</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>126168</t>
+          <t>62813</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>153273</t>
+          <t>74105</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>45,53%</t>
+          <t>39,07%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>41,17%</t>
+          <t>35,87%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>50,01%</t>
+          <t>42,32%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>149122</t>
+          <t>66482</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>134141</t>
+          <t>60432</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>163416</t>
+          <t>72875</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>47,23%</t>
+          <t>35,29%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>42,49%</t>
+          <t>32,08%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>51,76%</t>
+          <t>38,68%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>764</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>288672</t>
+          <t>134883</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>270128</t>
+          <t>126598</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>309525</t>
+          <t>143268</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>46,4%</t>
+          <t>37,11%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>43,42%</t>
+          <t>34,83%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>49,75%</t>
+          <t>39,41%</t>
         </is>
       </c>
     </row>
@@ -7000,107 +7000,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>471</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>141461</t>
+          <t>82712</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>128400</t>
+          <t>76718</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>155958</t>
+          <t>88475</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>46,16%</t>
+          <t>47,24%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>41,9%</t>
+          <t>43,82%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>50,89%</t>
+          <t>50,53%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>525</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>142880</t>
+          <t>94685</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>129881</t>
+          <t>87999</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>159094</t>
+          <t>100699</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>45,26%</t>
+          <t>50,26%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>41,14%</t>
+          <t>46,71%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>50,39%</t>
+          <t>53,45%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>996</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>284341</t>
+          <t>177397</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>263351</t>
+          <t>169446</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>303622</t>
+          <t>186506</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>45,7%</t>
+          <t>48,8%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>42,33%</t>
+          <t>46,62%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>48,8%</t>
+          <t>51,31%</t>
         </is>
       </c>
     </row>
@@ -7113,22 +7113,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>306479</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>306479</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>306479</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -7148,22 +7148,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>315704</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>315704</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>315704</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -7183,22 +7183,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1129</t>
+          <t>2059</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>622182</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>622182</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>622182</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -7230,107 +7230,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1508</t>
+          <t>4547</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>3119</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>4447</t>
+          <t>6550</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>4522</t>
+          <t>6035</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>2036</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>8918</t>
+          <t>8427</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>66</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>6030</t>
+          <t>10582</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>3168</t>
+          <t>8094</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>11010</t>
+          <t>13626</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>6,76%</t>
         </is>
       </c>
     </row>
@@ -7343,107 +7343,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>4246</t>
+          <t>7871</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1722</t>
+          <t>5709</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>8264</t>
+          <t>10380</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>5547</t>
+          <t>10441</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>2826</t>
+          <t>8183</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>10789</t>
+          <t>13655</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>108</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>9793</t>
+          <t>18312</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>6161</t>
+          <t>14918</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>16480</t>
+          <t>22055</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>10,94%</t>
         </is>
       </c>
     </row>
@@ -7456,107 +7456,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>85448</t>
+          <t>29710</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>75965</t>
+          <t>26284</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>95269</t>
+          <t>33833</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>56,63%</t>
+          <t>38,33%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>50,34%</t>
+          <t>33,91%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>63,14%</t>
+          <t>43,65%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>334</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>80435</t>
+          <t>55912</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>70613</t>
+          <t>51232</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>90003</t>
+          <t>60748</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>52,13%</t>
+          <t>45,09%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>45,76%</t>
+          <t>41,32%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>58,33%</t>
+          <t>48,99%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>513</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>165883</t>
+          <t>85622</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>150670</t>
+          <t>80177</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>179751</t>
+          <t>92174</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>54,35%</t>
+          <t>42,49%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>49,37%</t>
+          <t>39,79%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>58,9%</t>
+          <t>45,74%</t>
         </is>
       </c>
     </row>
@@ -7569,107 +7569,107 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>201</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>59691</t>
+          <t>35380</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>50322</t>
+          <t>31311</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>69447</t>
+          <t>39009</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>45,65%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>33,35%</t>
+          <t>40,4%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>46,02%</t>
+          <t>50,33%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>310</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>63795</t>
+          <t>51615</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>54724</t>
+          <t>47005</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>73551</t>
+          <t>56006</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>41,34%</t>
+          <t>41,62%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>35,47%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>47,67%</t>
+          <t>45,16%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>511</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>123486</t>
+          <t>86995</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>109507</t>
+          <t>80512</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>137625</t>
+          <t>92520</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>40,46%</t>
+          <t>43,17%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>35,88%</t>
+          <t>39,95%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>45,09%</t>
+          <t>45,91%</t>
         </is>
       </c>
     </row>
@@ -7682,22 +7682,22 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>150893</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>150893</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>150893</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -7717,22 +7717,22 @@
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>154299</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>154299</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>154299</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -7752,22 +7752,22 @@
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>1198</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>305192</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>305192</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>305192</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -7799,107 +7799,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>975</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3960</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5563</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3905</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7994</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7558</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5340</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10628</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,15%</t>
         </is>
       </c>
     </row>
@@ -7912,107 +7912,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>5837</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>2040</t>
+          <t>8392</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>21,82%</t>
+          <t>16,38%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>1908</t>
+          <t>9017</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>6664</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>5056</t>
+          <t>11785</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>44,35%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>78</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>2274</t>
+          <t>14854</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>11679</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>5272</t>
+          <t>18344</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>25,41%</t>
+          <t>10,62%</t>
         </is>
       </c>
     </row>
@@ -8025,107 +8025,107 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>6708</t>
+          <t>19402</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>3678</t>
+          <t>16515</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>8406</t>
+          <t>22916</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>71,76%</t>
+          <t>37,86%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>39,35%</t>
+          <t>32,23%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>89,93%</t>
+          <t>44,72%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>292</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>9274</t>
+          <t>48917</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>6190</t>
+          <t>44212</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>10695</t>
+          <t>53486</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>81,34%</t>
+          <t>40,28%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>54,29%</t>
+          <t>36,41%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>93,8%</t>
+          <t>44,04%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>394</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>15982</t>
+          <t>68319</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>11816</t>
+          <t>62328</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>18683</t>
+          <t>74613</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>77,02%</t>
+          <t>39,56%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>56,95%</t>
+          <t>36,09%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>90,04%</t>
+          <t>43,21%</t>
         </is>
       </c>
     </row>
@@ -8138,107 +8138,107 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>2274</t>
+          <t>24011</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>20799</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>5469</t>
+          <t>27116</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>24,32%</t>
+          <t>46,86%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>40,59%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>58,5%</t>
+          <t>52,91%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>324</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>57946</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>53112</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>1212</t>
+          <t>62784</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>47,71%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,73%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>51,7%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>456</t>
         </is>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>2494</t>
+          <t>81958</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>75836</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>6636</t>
+          <t>87857</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>47,46%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>43,91%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>50,88%</t>
         </is>
       </c>
     </row>
@@ -8251,22 +8251,22 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -8286,22 +8286,22 @@
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>11402</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>11402</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>11402</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -8321,22 +8321,22 @@
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>970</t>
         </is>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>20750</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>20750</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>20750</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -8368,107 +8368,107 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>24087</t>
+          <t>35801</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>17183</t>
+          <t>30855</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>32805</t>
+          <t>41133</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>222</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>23812</t>
+          <t>38509</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>16770</t>
+          <t>33839</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>33110</t>
+          <t>44495</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>422</t>
         </is>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>47898</t>
+          <t>74310</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>38277</t>
+          <t>66911</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>61145</t>
+          <t>82564</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>5,44%</t>
         </is>
       </c>
     </row>
@@ -8481,107 +8481,107 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>345</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>47538</t>
+          <t>62332</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>36289</t>
+          <t>54781</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>59370</t>
+          <t>68925</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>372</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>47440</t>
+          <t>66280</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>37079</t>
+          <t>59098</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>59774</t>
+          <t>73560</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>717</t>
         </is>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>94977</t>
+          <t>128612</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>80920</t>
+          <t>119582</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>113987</t>
+          <t>138780</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>9,14%</t>
         </is>
       </c>
     </row>
@@ -8594,107 +8594,107 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>1059</t>
+          <t>1556</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>581616</t>
+          <t>271939</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>553314</t>
+          <t>260637</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>607846</t>
+          <t>284718</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>51,12%</t>
+          <t>37,7%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>48,64%</t>
+          <t>36,13%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>53,43%</t>
+          <t>39,47%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>1678</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>515988</t>
+          <t>296847</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>488777</t>
+          <t>284279</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>542831</t>
+          <t>308852</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>48,1%</t>
+          <t>37,25%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>45,57%</t>
+          <t>35,67%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>50,61%</t>
+          <t>38,76%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>3234</t>
         </is>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>1097604</t>
+          <t>568786</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>1061348</t>
+          <t>551141</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>1132514</t>
+          <t>586212</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>49,66%</t>
+          <t>37,46%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>48,02%</t>
+          <t>36,3%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>51,24%</t>
+          <t>38,61%</t>
         </is>
       </c>
     </row>
@@ -8707,107 +8707,107 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>879</t>
+          <t>1908</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>484409</t>
+          <t>351334</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>458506</t>
+          <t>338672</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>513180</t>
+          <t>363335</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>42,58%</t>
+          <t>48,7%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>40,3%</t>
+          <t>46,95%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>45,11%</t>
+          <t>50,36%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>2145</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>485410</t>
+          <t>395296</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>457813</t>
+          <t>382780</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>512469</t>
+          <t>409145</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>45,25%</t>
+          <t>49,6%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>42,68%</t>
+          <t>48,03%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>47,78%</t>
+          <t>51,34%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>1709</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>969819</t>
+          <t>746629</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>931566</t>
+          <t>728412</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>1004951</t>
+          <t>764263</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>43,88%</t>
+          <t>49,17%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>42,15%</t>
+          <t>47,97%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>45,47%</t>
+          <t>50,34%</t>
         </is>
       </c>
     </row>
@@ -8820,22 +8820,22 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2058</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>1137649</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>1137649</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>1137649</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -8855,22 +8855,22 @@
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>1856</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>1072649</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>1072649</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>1072649</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -8890,22 +8890,22 @@
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>3914</t>
+          <t>8426</t>
         </is>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>2210298</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>2210298</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>2210298</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
